--- a/InterviewTest/data-source.xlsx
+++ b/InterviewTest/data-source.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\InterviewTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99780984-2905-4C2A-B8B7-07F5E1F1CCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D22C110-84D4-4BFD-868D-8BEA922B82C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9AC4F694-3E0A-4293-A5C9-6C86E8FDC788}"/>
   </bookViews>
@@ -2253,9 +2253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E5F1DD-3669-4162-B608-B2A297B699A5}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M561"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F280" sqref="F280:G280"/>
     </sheetView>
   </sheetViews>
